--- a/biology/Médecine/Fallopia_multiflora/Fallopia_multiflora.xlsx
+++ b/biology/Médecine/Fallopia_multiflora/Fallopia_multiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fallopia multiflora, la renouée à fleurs multiples (anciennement dénommée Polygonum multiflorum[1]), est une espèce de plante herbacée de la famille des Polygonaceae. Originaire d'extrême-Orient (Chine, Taïwan, Vietnam), on utilise sa racine anthropomorphe en médecine traditionnelle orientale[2]. Elle est aussi appelée fo-ti ou bien encore He Shou Wu[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fallopia multiflora, la renouée à fleurs multiples (anciennement dénommée Polygonum multiflorum), est une espèce de plante herbacée de la famille des Polygonaceae. Originaire d'extrême-Orient (Chine, Taïwan, Vietnam), on utilise sa racine anthropomorphe en médecine traditionnelle orientale. Elle est aussi appelée fo-ti ou bien encore He Shou Wu.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède une action sur le foie, les reins qui la rend hypotensive. Elle est reminéralisante et réduit les dépôts de lipofuscine (pigment des taches de vieillesse).
-Elle module aussi l'action du système immunitaire. Lorsqu'elle est associée avec le ginseng (Panax ginseng) le zeste de tangérine verte (Citrus reticulata) et l'angélique chinoise (Angelica sinensis) elle serait anti-infectieuse selon une étude chinoise concernant des cas de paludisme et de tuberculose[4].
+Elle module aussi l'action du système immunitaire. Lorsqu'elle est associée avec le ginseng (Panax ginseng) le zeste de tangérine verte (Citrus reticulata) et l'angélique chinoise (Angelica sinensis) elle serait anti-infectieuse selon une étude chinoise concernant des cas de paludisme et de tuberculose.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mars 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mars 2018) :
 Fallopia multiflora var. angulata
 Fallopia multiflora var. ciliinervis
 Fallopia multiflora var. hypoleuca
@@ -577,7 +593,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Reynoutria multiflora (Thunb.) Moldenke</t>
         </is>
